--- a/acm/acm-config-server-repo/rules/drools-timesheet-rules.xlsx
+++ b/acm/acm-config-server-repo/rules/drools-timesheet-rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivana.shekerova\.arkcase\acm\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladimir.cherepnalko\.arkcase\acm\acm-config-server-repo\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8F29F0B1-263C-4DD9-8932-D84EAB3232F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACB1587-9B32-4109-8CD7-15C7314D2DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <t>container?.folder?.cmisFolderId == null</t>
   </si>
   <si>
-    <t>setEcmFolderPath, '/Sites/acm/documentLibrary/Timesheets/' + dateFormat('yyyyMMdd') + '_' + $acmTimesheet.getId()</t>
+    <t>setEcmFolderPath, '/Sites/acm/documentLibrary/Timesheets/'</t>
   </si>
 </sst>
 </file>
@@ -819,7 +819,7 @@
   <dimension ref="A2:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +828,7 @@
     <col min="2" max="2" width="24.28515625"/>
     <col min="3" max="3" width="50.140625"/>
     <col min="4" max="4" width="112.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
